--- a/server/translations.xlsx
+++ b/server/translations.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>ru</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>not found</t>
+  </si>
+  <si>
+    <t>_name</t>
   </si>
 </sst>
 </file>
@@ -410,9 +410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -424,72 +422,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">

--- a/server/translations.xlsx
+++ b/server/translations.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E94D94-15CB-4F72-98F0-B249CE782C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="378">
   <si>
     <t>ru</t>
   </si>
@@ -42,18 +50,6 @@
     <t>Хозяйственные товары</t>
   </si>
   <si>
-    <t>办公用品</t>
-  </si>
-  <si>
-    <t>家庭财物</t>
-  </si>
-  <si>
-    <t>条目</t>
-  </si>
-  <si>
-    <t>Stationery goods</t>
-  </si>
-  <si>
     <t>Household goods</t>
   </si>
   <si>
@@ -61,13 +57,1117 @@
   </si>
   <si>
     <t>_name</t>
+  </si>
+  <si>
+    <t>Бумажная продукция</t>
+  </si>
+  <si>
+    <t>Ежедневники и блокноты</t>
+  </si>
+  <si>
+    <t>Канцелярия</t>
+  </si>
+  <si>
+    <t>Организация рабочего места</t>
+  </si>
+  <si>
+    <t>Папки и кейсы</t>
+  </si>
+  <si>
+    <t>Письменные принадлежности</t>
+  </si>
+  <si>
+    <t>Бумажно-гигиеническая продукция</t>
+  </si>
+  <si>
+    <t>Бытовая химия</t>
+  </si>
+  <si>
+    <t>Диспенсеры и дозаторы для общественных санузлов</t>
+  </si>
+  <si>
+    <t>Одноразовая посуда</t>
+  </si>
+  <si>
+    <t>Спецодежда и перчатки</t>
+  </si>
+  <si>
+    <t>Товары для кухни, общепита и клининга</t>
+  </si>
+  <si>
+    <t>Товары для упаковки и фасовки</t>
+  </si>
+  <si>
+    <t>Бумага для заметок</t>
+  </si>
+  <si>
+    <t>Бумага для факса</t>
+  </si>
+  <si>
+    <t>Закладки</t>
+  </si>
+  <si>
+    <t>Конверты</t>
+  </si>
+  <si>
+    <t>Офисная бумага</t>
+  </si>
+  <si>
+    <t>Прочее</t>
+  </si>
+  <si>
+    <t>Чековая лента</t>
+  </si>
+  <si>
+    <t>Блокноты</t>
+  </si>
+  <si>
+    <t>Ежедневники недатированные</t>
+  </si>
+  <si>
+    <t>Тетради</t>
+  </si>
+  <si>
+    <t>Бейджи, ланьярды</t>
+  </si>
+  <si>
+    <t>Визитницы</t>
+  </si>
+  <si>
+    <t>Дыроколы</t>
+  </si>
+  <si>
+    <t>Зажимы для бумаг</t>
+  </si>
+  <si>
+    <t>Канцелярские мелочи</t>
+  </si>
+  <si>
+    <t>Клей</t>
+  </si>
+  <si>
+    <t>Клейкие ленты и диспенсеры</t>
+  </si>
+  <si>
+    <t>Корректоры</t>
+  </si>
+  <si>
+    <t>Ластики</t>
+  </si>
+  <si>
+    <t>Линейки, угольники</t>
+  </si>
+  <si>
+    <t>Ножи и лезвия</t>
+  </si>
+  <si>
+    <t>Ножницы</t>
+  </si>
+  <si>
+    <t>Прочие мелочи</t>
+  </si>
+  <si>
+    <t>Скобы</t>
+  </si>
+  <si>
+    <t>Степлеры и антистеплеры</t>
+  </si>
+  <si>
+    <t>Точилки</t>
+  </si>
+  <si>
+    <t>Штемпельная продукция</t>
+  </si>
+  <si>
+    <t>Доски</t>
+  </si>
+  <si>
+    <t>Калькуляторы</t>
+  </si>
+  <si>
+    <t>Лотки для бумаг</t>
+  </si>
+  <si>
+    <t>Подставки настольные</t>
+  </si>
+  <si>
+    <t>Средства по уходу за оргтехникой</t>
+  </si>
+  <si>
+    <t>Коробки архивные</t>
+  </si>
+  <si>
+    <t>Офисные планшеты</t>
+  </si>
+  <si>
+    <t>Папки ДЕЛО, с завязками и др.</t>
+  </si>
+  <si>
+    <t>Папки на резинках</t>
+  </si>
+  <si>
+    <t>Папки с завязками</t>
+  </si>
+  <si>
+    <t>Папки с зажимами</t>
+  </si>
+  <si>
+    <t>Папки с файлами</t>
+  </si>
+  <si>
+    <t>Папки-конверты</t>
+  </si>
+  <si>
+    <t>Папки-регистраторы</t>
+  </si>
+  <si>
+    <t>Папки-скоросшиватели</t>
+  </si>
+  <si>
+    <t>Папки-уголки</t>
+  </si>
+  <si>
+    <t>Файлы</t>
+  </si>
+  <si>
+    <t>Автоматические карандаши</t>
+  </si>
+  <si>
+    <t>Автоматические шариковые ручки</t>
+  </si>
+  <si>
+    <t>Гелевые ручки</t>
+  </si>
+  <si>
+    <t>Грифели для автокарандашей</t>
+  </si>
+  <si>
+    <t>Маркеры для магнитных досок и флипчартов</t>
+  </si>
+  <si>
+    <t>Неавтоматические шариковые ручки</t>
+  </si>
+  <si>
+    <t>Перманентные маркеры</t>
+  </si>
+  <si>
+    <t>Простые карандаши</t>
+  </si>
+  <si>
+    <t>Ручки на подставке</t>
+  </si>
+  <si>
+    <t>Ручки пигментные и капиллярные</t>
+  </si>
+  <si>
+    <t>Специальные маркеры</t>
+  </si>
+  <si>
+    <t>Стержни для ручек</t>
+  </si>
+  <si>
+    <t>Текстовые маркеры</t>
+  </si>
+  <si>
+    <t>Фломастеры</t>
+  </si>
+  <si>
+    <t>Бумажные полотенца</t>
+  </si>
+  <si>
+    <t>Бумажные салфетки</t>
+  </si>
+  <si>
+    <t>Прочая бумажная продукция</t>
+  </si>
+  <si>
+    <t>Туалетная бумага</t>
+  </si>
+  <si>
+    <t>Мыло</t>
+  </si>
+  <si>
+    <t>Освежители воздуха</t>
+  </si>
+  <si>
+    <t>Полироль для мебели</t>
+  </si>
+  <si>
+    <t>Средства для кухни</t>
+  </si>
+  <si>
+    <t>Средства для мытья пола и стен</t>
+  </si>
+  <si>
+    <t>Средства для мытья посуды</t>
+  </si>
+  <si>
+    <t>Средства для очистки стекол и зеркал</t>
+  </si>
+  <si>
+    <t>Средства для стирки</t>
+  </si>
+  <si>
+    <t>Средства для туалетов и ванных комнат</t>
+  </si>
+  <si>
+    <t>Средства для чистки ковров и обивки мебели</t>
+  </si>
+  <si>
+    <t>Средства для чистки труб</t>
+  </si>
+  <si>
+    <t>Универсальные чистящие средства</t>
+  </si>
+  <si>
+    <t>Диспенсеры для бумажных изделий</t>
+  </si>
+  <si>
+    <t>Дозаторы</t>
+  </si>
+  <si>
+    <t>Бумажная упаковка</t>
+  </si>
+  <si>
+    <t>Контейнеры универсальные</t>
+  </si>
+  <si>
+    <t>Крышки для стаканов</t>
+  </si>
+  <si>
+    <t>Ланч-боксы</t>
+  </si>
+  <si>
+    <t>Одноразовые пластиковые стаканы</t>
+  </si>
+  <si>
+    <t>Палочки для еды</t>
+  </si>
+  <si>
+    <t>Пластиковые контейнеры-салатники</t>
+  </si>
+  <si>
+    <t>ПЭТ-стаканы</t>
+  </si>
+  <si>
+    <t>Размешиватели</t>
+  </si>
+  <si>
+    <t>Соусники</t>
+  </si>
+  <si>
+    <t>Стаканы для горячих напитков</t>
+  </si>
+  <si>
+    <t>Столовые приборы</t>
+  </si>
+  <si>
+    <t>Суповые банки</t>
+  </si>
+  <si>
+    <t>Тарелки и миски</t>
+  </si>
+  <si>
+    <t>Трубочки</t>
+  </si>
+  <si>
+    <t>Одноразовая спецодежда</t>
+  </si>
+  <si>
+    <t>Перчатки</t>
+  </si>
+  <si>
+    <t>Термометры и гигрометры</t>
+  </si>
+  <si>
+    <t>Товары для приготовления еды</t>
+  </si>
+  <si>
+    <t>Украшения, сервировка для напитков и еды</t>
+  </si>
+  <si>
+    <t>Пакеты</t>
+  </si>
+  <si>
+    <t>Скотчи, клейкие ленты и стрейч</t>
+  </si>
+  <si>
+    <t>Хомуты, шпагаты и сетки</t>
+  </si>
+  <si>
+    <t>Губки и мочалки хозяйственные</t>
+  </si>
+  <si>
+    <t>Лопаты, грабли, черенки</t>
+  </si>
+  <si>
+    <t>Метлы, щетки, совки для уборки</t>
+  </si>
+  <si>
+    <t>Окномойки</t>
+  </si>
+  <si>
+    <t>Протирочный материал, ветошь</t>
+  </si>
+  <si>
+    <t>Разное</t>
+  </si>
+  <si>
+    <t>Тележки для уборки</t>
+  </si>
+  <si>
+    <t>Товары для туалета</t>
+  </si>
+  <si>
+    <t>Швабры, мопы, держатели</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>Paper products</t>
+  </si>
+  <si>
+    <t>Diaries and notebooks</t>
+  </si>
+  <si>
+    <t>Chancery</t>
+  </si>
+  <si>
+    <t>Organization of the workplace</t>
+  </si>
+  <si>
+    <t>Folders and cases</t>
+  </si>
+  <si>
+    <t>Writing utensils</t>
+  </si>
+  <si>
+    <t>Hygiene paper products</t>
+  </si>
+  <si>
+    <t>Household chemicals</t>
+  </si>
+  <si>
+    <t>Dispensers and dispensers for public washrooms</t>
+  </si>
+  <si>
+    <t>Disposable tableware</t>
+  </si>
+  <si>
+    <t>Workwear and gloves</t>
+  </si>
+  <si>
+    <t>Products for the kitchen, catering and cleaning</t>
+  </si>
+  <si>
+    <t>Goods for packaging and packing</t>
+  </si>
+  <si>
+    <t>Note paper</t>
+  </si>
+  <si>
+    <t>Fax paper</t>
+  </si>
+  <si>
+    <t>Bookmarks</t>
+  </si>
+  <si>
+    <t>Envelopes</t>
+  </si>
+  <si>
+    <t>Office paper</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Receipt tape</t>
+  </si>
+  <si>
+    <t>Notepads</t>
+  </si>
+  <si>
+    <t>Diaries undated</t>
+  </si>
+  <si>
+    <t>Notebooks</t>
+  </si>
+  <si>
+    <t>Badges, lanyards</t>
+  </si>
+  <si>
+    <t>Business card holders</t>
+  </si>
+  <si>
+    <t>Punchers</t>
+  </si>
+  <si>
+    <t>Clips for papers</t>
+  </si>
+  <si>
+    <t>Stationery trivia</t>
+  </si>
+  <si>
+    <t>Glue</t>
+  </si>
+  <si>
+    <t>Adhesive tapes and dispensers</t>
+  </si>
+  <si>
+    <t>Proofreaders</t>
+  </si>
+  <si>
+    <t>Erasers</t>
+  </si>
+  <si>
+    <t>Rulers, squares</t>
+  </si>
+  <si>
+    <t>Knives and blades</t>
+  </si>
+  <si>
+    <t>Scissors</t>
+  </si>
+  <si>
+    <t>Other little things</t>
+  </si>
+  <si>
+    <t>Staples</t>
+  </si>
+  <si>
+    <t>Staplers and anti-staplers</t>
+  </si>
+  <si>
+    <t>Sharpeners</t>
+  </si>
+  <si>
+    <t>Stamp products</t>
+  </si>
+  <si>
+    <t>Planks</t>
+  </si>
+  <si>
+    <t>Calculators</t>
+  </si>
+  <si>
+    <t>Paper trays</t>
+  </si>
+  <si>
+    <t>Table stands</t>
+  </si>
+  <si>
+    <t>Office equipment care products</t>
+  </si>
+  <si>
+    <t>Archival boxes</t>
+  </si>
+  <si>
+    <t>Office tablets</t>
+  </si>
+  <si>
+    <t>CASE folders, with ties, etc.</t>
+  </si>
+  <si>
+    <t>Folders with elastic bands</t>
+  </si>
+  <si>
+    <t>Folders with ties</t>
+  </si>
+  <si>
+    <t>Clip folders</t>
+  </si>
+  <si>
+    <t>File folders</t>
+  </si>
+  <si>
+    <t>Envelope folders</t>
+  </si>
+  <si>
+    <t>Registrars</t>
+  </si>
+  <si>
+    <t>Binder folders</t>
+  </si>
+  <si>
+    <t>Folders-corners</t>
+  </si>
+  <si>
+    <t>Files</t>
+  </si>
+  <si>
+    <t>Automatic pencils</t>
+  </si>
+  <si>
+    <t>Automatic ballpoint pens</t>
+  </si>
+  <si>
+    <t>Gel pens</t>
+  </si>
+  <si>
+    <t>Leads for car pencils</t>
+  </si>
+  <si>
+    <t>Markers for magnetic boards and flipcharts</t>
+  </si>
+  <si>
+    <t>Non-automatic ballpoint pens</t>
+  </si>
+  <si>
+    <t>Permanent markers</t>
+  </si>
+  <si>
+    <t>Simple pencils</t>
+  </si>
+  <si>
+    <t>Stand handles</t>
+  </si>
+  <si>
+    <t>Pens, pigment and capillary</t>
+  </si>
+  <si>
+    <t>Special markers</t>
+  </si>
+  <si>
+    <t>Pen rods</t>
+  </si>
+  <si>
+    <t>Text markers</t>
+  </si>
+  <si>
+    <t>Markers</t>
+  </si>
+  <si>
+    <t>Paper towels</t>
+  </si>
+  <si>
+    <t>Paper napkins</t>
+  </si>
+  <si>
+    <t>Other paper products</t>
+  </si>
+  <si>
+    <t>Toilet paper</t>
+  </si>
+  <si>
+    <t>Soap</t>
+  </si>
+  <si>
+    <t>Air fresheners</t>
+  </si>
+  <si>
+    <t>Furniture polish</t>
+  </si>
+  <si>
+    <t>Tools for the kitchen</t>
+  </si>
+  <si>
+    <t>Floor and wall cleaning products</t>
+  </si>
+  <si>
+    <t>Dishwashing detergents</t>
+  </si>
+  <si>
+    <t>Cleaning products for glasses and mirrors</t>
+  </si>
+  <si>
+    <t>Detergents</t>
+  </si>
+  <si>
+    <t>Toilet and bathroom products</t>
+  </si>
+  <si>
+    <t>Cleaning products for carpets and upholstery</t>
+  </si>
+  <si>
+    <t>Pipe cleaners</t>
+  </si>
+  <si>
+    <t>Universal cleaning agents</t>
+  </si>
+  <si>
+    <t>Dispensers for paper products</t>
+  </si>
+  <si>
+    <t>Dispensers</t>
+  </si>
+  <si>
+    <t>Paper packaging</t>
+  </si>
+  <si>
+    <t>Universal containers</t>
+  </si>
+  <si>
+    <t>Lids for glasses</t>
+  </si>
+  <si>
+    <t>Lunch boxes</t>
+  </si>
+  <si>
+    <t>Disposable plastic cups</t>
+  </si>
+  <si>
+    <t>Food sticks</t>
+  </si>
+  <si>
+    <t>Plastic container-salad bowls</t>
+  </si>
+  <si>
+    <t>PET glasses</t>
+  </si>
+  <si>
+    <t>Stirrers</t>
+  </si>
+  <si>
+    <t>Gravy boats</t>
+  </si>
+  <si>
+    <t>Glasses for hot drinks</t>
+  </si>
+  <si>
+    <t>Cutlery</t>
+  </si>
+  <si>
+    <t>Soup cans</t>
+  </si>
+  <si>
+    <t>Plates and bowls</t>
+  </si>
+  <si>
+    <t>Tubules</t>
+  </si>
+  <si>
+    <t>Disposable workwear</t>
+  </si>
+  <si>
+    <t>Gloves</t>
+  </si>
+  <si>
+    <t>Thermometers and hygrometers</t>
+  </si>
+  <si>
+    <t>Food preparation supplies</t>
+  </si>
+  <si>
+    <t>Decorations, serving for drinks and food</t>
+  </si>
+  <si>
+    <t>Packages</t>
+  </si>
+  <si>
+    <t>Scotch tapes, adhesive tapes and stretch</t>
+  </si>
+  <si>
+    <t>Clamps, twines and nets</t>
+  </si>
+  <si>
+    <t>Household sponges and washcloths</t>
+  </si>
+  <si>
+    <t>Shovels, rakes, cuttings</t>
+  </si>
+  <si>
+    <t>Brooms, brushes, scoops for cleaning</t>
+  </si>
+  <si>
+    <t>Window washers</t>
+  </si>
+  <si>
+    <t>Cleaning material, rags</t>
+  </si>
+  <si>
+    <t>miscellanea</t>
+  </si>
+  <si>
+    <t>Cleaning trolleys</t>
+  </si>
+  <si>
+    <t>Toilet goods</t>
+  </si>
+  <si>
+    <t>Mops, mops, holders</t>
+  </si>
+  <si>
+    <t>目录</t>
+  </si>
+  <si>
+    <t>静止的</t>
+  </si>
+  <si>
+    <t>家庭用品</t>
+  </si>
+  <si>
+    <t>未找到</t>
+  </si>
+  <si>
+    <t>纸制品</t>
+  </si>
+  <si>
+    <t>日记本和笔记本</t>
+  </si>
+  <si>
+    <t>大法官</t>
+  </si>
+  <si>
+    <t>工作场所的组织</t>
+  </si>
+  <si>
+    <t>文件夹和案例</t>
+  </si>
+  <si>
+    <t>书写用具</t>
+  </si>
+  <si>
+    <t>卫生纸制品</t>
+  </si>
+  <si>
+    <t>日用化学品</t>
+  </si>
+  <si>
+    <t>公共洗手间的分配器和分配器</t>
+  </si>
+  <si>
+    <t>一次性餐具</t>
+  </si>
+  <si>
+    <t>工作服和手套</t>
+  </si>
+  <si>
+    <t>厨房、餐饮和清洁产品</t>
+  </si>
+  <si>
+    <t>用于包装和包装的货物</t>
+  </si>
+  <si>
+    <t>笔记纸</t>
+  </si>
+  <si>
+    <t>传真纸</t>
+  </si>
+  <si>
+    <t>书签</t>
+  </si>
+  <si>
+    <t>信封</t>
+  </si>
+  <si>
+    <t>办公用纸</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>收据胶带</t>
+  </si>
+  <si>
+    <t>记事本</t>
+  </si>
+  <si>
+    <t>未注明日期的日记</t>
+  </si>
+  <si>
+    <t>笔记本</t>
+  </si>
+  <si>
+    <t>徽章、挂绳</t>
+  </si>
+  <si>
+    <t>名片夹</t>
+  </si>
+  <si>
+    <t>打孔机</t>
+  </si>
+  <si>
+    <t>纸夹</t>
+  </si>
+  <si>
+    <t>文具小知识</t>
+  </si>
+  <si>
+    <t>胶水</t>
+  </si>
+  <si>
+    <t>胶带和分配器</t>
+  </si>
+  <si>
+    <t>校对员</t>
+  </si>
+  <si>
+    <t>橡皮擦</t>
+  </si>
+  <si>
+    <t>尺子，正方形</t>
+  </si>
+  <si>
+    <t>刀和刀片</t>
+  </si>
+  <si>
+    <t>剪刀</t>
+  </si>
+  <si>
+    <t>其他小东西</t>
+  </si>
+  <si>
+    <t>订书钉</t>
+  </si>
+  <si>
+    <t>订书机和反订书机</t>
+  </si>
+  <si>
+    <t>卷笔刀</t>
+  </si>
+  <si>
+    <t>邮票产品</t>
+  </si>
+  <si>
+    <t>木板</t>
+  </si>
+  <si>
+    <t>计算器</t>
+  </si>
+  <si>
+    <t>纸盘</t>
+  </si>
+  <si>
+    <t>桌架</t>
+  </si>
+  <si>
+    <t>办公设备保养品</t>
+  </si>
+  <si>
+    <t>档案箱</t>
+  </si>
+  <si>
+    <t>办公平板电脑</t>
+  </si>
+  <si>
+    <t>CASE 文件夹，带领带等。</t>
+  </si>
+  <si>
+    <t>带松紧带的文件夹</t>
+  </si>
+  <si>
+    <t>有关系的文件夹</t>
+  </si>
+  <si>
+    <t>剪辑文件夹</t>
+  </si>
+  <si>
+    <t>文件夹</t>
+  </si>
+  <si>
+    <t>信封文件夹</t>
+  </si>
+  <si>
+    <t>注册商</t>
+  </si>
+  <si>
+    <t>活页夹文件夹</t>
+  </si>
+  <si>
+    <t>文件夹角</t>
+  </si>
+  <si>
+    <t>文件</t>
+  </si>
+  <si>
+    <t>自动铅笔</t>
+  </si>
+  <si>
+    <t>自动圆珠笔</t>
+  </si>
+  <si>
+    <t>中性笔</t>
+  </si>
+  <si>
+    <t>汽车铅笔芯</t>
+  </si>
+  <si>
+    <t>磁性板和活动挂图的标记</t>
+  </si>
+  <si>
+    <t>非自动圆珠笔</t>
+  </si>
+  <si>
+    <t>永久标记</t>
+  </si>
+  <si>
+    <t>简单的铅笔</t>
+  </si>
+  <si>
+    <t>支架把手</t>
+  </si>
+  <si>
+    <t>笔、颜料和毛细管</t>
+  </si>
+  <si>
+    <t>特殊标记</t>
+  </si>
+  <si>
+    <t>笔杆</t>
+  </si>
+  <si>
+    <t>文字标记</t>
+  </si>
+  <si>
+    <t>标记</t>
+  </si>
+  <si>
+    <t>纸巾</t>
+  </si>
+  <si>
+    <t>餐巾纸</t>
+  </si>
+  <si>
+    <t>其他纸制品</t>
+  </si>
+  <si>
+    <t>卫生纸</t>
+  </si>
+  <si>
+    <t>肥皂</t>
+  </si>
+  <si>
+    <t>空气清新剂</t>
+  </si>
+  <si>
+    <t>家具上光</t>
+  </si>
+  <si>
+    <t>厨房用具</t>
+  </si>
+  <si>
+    <t>地板和墙壁清洁产品</t>
+  </si>
+  <si>
+    <t>洗洁精</t>
+  </si>
+  <si>
+    <t>用于眼镜和镜子的清洁产品</t>
+  </si>
+  <si>
+    <t>洗涤剂</t>
+  </si>
+  <si>
+    <t>马桶和卫浴产品</t>
+  </si>
+  <si>
+    <t>用于地毯和室内装潢的清洁产品</t>
+  </si>
+  <si>
+    <t>管道清洁器</t>
+  </si>
+  <si>
+    <t>通用清洁剂</t>
+  </si>
+  <si>
+    <t>纸制品分配器</t>
+  </si>
+  <si>
+    <t>分配器</t>
+  </si>
+  <si>
+    <t>纸包装</t>
+  </si>
+  <si>
+    <t>通用容器</t>
+  </si>
+  <si>
+    <t>眼镜盖</t>
+  </si>
+  <si>
+    <t>饭盒</t>
+  </si>
+  <si>
+    <t>一次性塑料杯</t>
+  </si>
+  <si>
+    <t>食物棒</t>
+  </si>
+  <si>
+    <t>塑料容器沙拉碗</t>
+  </si>
+  <si>
+    <t>PET眼镜</t>
+  </si>
+  <si>
+    <t>搅拌器</t>
+  </si>
+  <si>
+    <t>肉汁船</t>
+  </si>
+  <si>
+    <t>热饮杯</t>
+  </si>
+  <si>
+    <t>刀具</t>
+  </si>
+  <si>
+    <t>汤罐</t>
+  </si>
+  <si>
+    <t>盘子和碗</t>
+  </si>
+  <si>
+    <t>小管</t>
+  </si>
+  <si>
+    <t>一次性工作服</t>
+  </si>
+  <si>
+    <t>手套</t>
+  </si>
+  <si>
+    <t>温度计和湿度计</t>
+  </si>
+  <si>
+    <t>食物准备用品</t>
+  </si>
+  <si>
+    <t>装饰品，供应饮料和食物</t>
+  </si>
+  <si>
+    <t>套餐</t>
+  </si>
+  <si>
+    <t>透明胶带、胶带和拉伸</t>
+  </si>
+  <si>
+    <t>夹子、麻线和网</t>
+  </si>
+  <si>
+    <t>家用海绵和毛巾</t>
+  </si>
+  <si>
+    <t>铲子、耙子、扦插</t>
+  </si>
+  <si>
+    <t>扫帚、刷子、清洁勺</t>
+  </si>
+  <si>
+    <t>窗户垫圈</t>
+  </si>
+  <si>
+    <t>清洁材料、抹布</t>
+  </si>
+  <si>
+    <t>杂项</t>
+  </si>
+  <si>
+    <t>清洁手推车</t>
+  </si>
+  <si>
+    <t>厕所用品</t>
+  </si>
+  <si>
+    <t>拖把、拖把、支架</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,8 +1184,29 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2080AD"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,8 +1225,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2F0D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,19 +1246,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -407,142 +1578,1827 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="50.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="C8" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="2"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="2"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="2"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="2"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="2"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
